--- a/intlab/実験結果.xlsx
+++ b/intlab/実験結果.xlsx
@@ -8,22 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DE\Documents\Github\intlab\intlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3D5D82-87D7-4526-A48E-8CD20888486E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8557D873-4724-41D7-B316-508C7A888CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.減衰関数無し" sheetId="2" r:id="rId1"/>
     <sheet name="7.減衰関数有り" sheetId="3" r:id="rId2"/>
     <sheet name="8.ハイパーパラメータ探査1" sheetId="4" r:id="rId3"/>
     <sheet name="9.ハイパーパラメータ探査2" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
+    <sheet name="8.ハイパーパラメータ探査1_2" sheetId="8" r:id="rId5"/>
+    <sheet name="9.ハイパーパラメータ探査2_2" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,9 +40,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,7 +79,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1370,37 +1371,37 @@
             <c:numRef>
               <c:f>Sheet1!$E$1:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>4.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>4.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>4.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08</c:v>
+                  <c:v>5.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>5.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09</c:v>
+                  <c:v>5.4000000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,37 +1476,37 @@
             <c:numRef>
               <c:f>Sheet1!$E$1:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>4.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>4.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>4.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08</c:v>
+                  <c:v>5.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>5.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09</c:v>
+                  <c:v>5.4000000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,37 +1590,37 @@
             <c:numRef>
               <c:f>Sheet1!$E$1:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>4.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>4.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>4.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08</c:v>
+                  <c:v>5.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>5.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09</c:v>
+                  <c:v>5.4000000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,37 +1704,37 @@
             <c:numRef>
               <c:f>Sheet1!$E$1:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>4.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>4.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>4.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08</c:v>
+                  <c:v>5.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>5.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09</c:v>
+                  <c:v>5.4000000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1808,37 +1809,37 @@
             <c:numRef>
               <c:f>Sheet1!$E$1:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>4.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>4.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>4.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08</c:v>
+                  <c:v>5.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>5.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09</c:v>
+                  <c:v>5.4000000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,37 +1914,37 @@
             <c:numRef>
               <c:f>Sheet1!$E$1:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>4.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>4.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>4.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08</c:v>
+                  <c:v>5.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>5.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09</c:v>
+                  <c:v>5.4000000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2027,37 +2028,37 @@
             <c:numRef>
               <c:f>Sheet1!$E$1:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>4.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>4.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>4.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08</c:v>
+                  <c:v>5.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>5.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09</c:v>
+                  <c:v>5.4000000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,37 +2142,37 @@
             <c:numRef>
               <c:f>Sheet1!$E$1:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>4.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>4.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>4.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>4.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>5.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08</c:v>
+                  <c:v>5.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>5.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09</c:v>
+                  <c:v>5.4000000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,7 +2270,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2385,6 +2386,1029 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="2000" b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[4]Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99情報エントロピー</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[4]Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.66534303052104782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.088390782039572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.086081416384064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0405781838336068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99897401488642668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96283914284524319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93084264544327466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91047977963786419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89184093998155611</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87595498314688058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8124-45BD-ACD2-5811BAEAD753}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[4]Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>判定ライン</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[4]Sheet1!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8124-45BD-ACD2-5811BAEAD753}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="941197480"/>
+        <c:axId val="941196760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="941197480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP"/>
+                  <a:t>減衰定数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="941196760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="941196760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP"/>
+                  <a:t>情報エントロピー</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="941197480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr algn="ctr">
+        <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14459592559680778"/>
+          <c:y val="2.6192036003892905E-2"/>
+          <c:w val="0.80581642330516823"/>
+          <c:h val="0.76671436022347494"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[5]Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99情報エントロピー</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[5]Sheet1!$G$2:$Q$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0198437820876123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0132982818603651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0114501074634761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.00679982409691</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.003002882928153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99731846422632586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99501745606430436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99191706112365552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98713159842259979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98247018776425177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97837601077159686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-043D-428D-8793-E8B13D63D26D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[5]Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>判定ライン</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[5]Sheet1!$G$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-043D-428D-8793-E8B13D63D26D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="788970584"/>
+        <c:axId val="788974184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="788970584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP"/>
+                  <a:t>減衰定数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788974184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="788974184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP"/>
+                  <a:t>情報エントロピー</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788970584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" altLang="ja-JP" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -2512,6 +3536,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3991,6 +5095,1014 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4058,6 +6170,28 @@
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7903479E-ADBA-4209-8468-D72420D31DFB}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="141" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7D5710D4-48D1-468B-8BD0-CA15AB0DF196}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="141" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8E73E278-1729-4C4E-9F9B-2BB4844501AC}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0" zoomToFit="1"/>
@@ -4177,6 +6311,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7EF1E9-1A57-DAD3-EFBF-0293146E459E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9302074" cy="6079787"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD5130B-F865-915B-4CD6-4292103EA82F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9302074" cy="6079787"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4852C34-1A09-941B-DA0B-F44775E94A22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4759,6 +6959,501 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="simulation_001"/>
+      <sheetName val="simulation_002"/>
+      <sheetName val="simulation_003"/>
+      <sheetName val="simulation_004"/>
+      <sheetName val="simulation_005"/>
+      <sheetName val="simulation_006"/>
+      <sheetName val="simulation_007"/>
+      <sheetName val="simulation_008"/>
+      <sheetName val="simulation_009"/>
+      <sheetName val="simulation_010"/>
+      <sheetName val="simulation_011"/>
+      <sheetName val="simulation_012"/>
+      <sheetName val="simulation_013"/>
+      <sheetName val="simulation_014"/>
+      <sheetName val="simulation_015"/>
+      <sheetName val="simulation_016"/>
+      <sheetName val="simulation_017"/>
+      <sheetName val="simulation_018"/>
+      <sheetName val="simulation_019"/>
+      <sheetName val="simulation_020"/>
+      <sheetName val="simulation_021"/>
+      <sheetName val="simulation_022"/>
+      <sheetName val="simulation_023"/>
+      <sheetName val="simulation_024"/>
+      <sheetName val="simulation_025"/>
+      <sheetName val="simulation_026"/>
+      <sheetName val="simulation_027"/>
+      <sheetName val="simulation_028"/>
+      <sheetName val="simulation_029"/>
+      <sheetName val="simulation_030"/>
+      <sheetName val="simulation_031"/>
+      <sheetName val="simulation_032"/>
+      <sheetName val="simulation_033"/>
+      <sheetName val="simulation_034"/>
+      <sheetName val="simulation_035"/>
+      <sheetName val="simulation_036"/>
+      <sheetName val="simulation_037"/>
+      <sheetName val="simulation_038"/>
+      <sheetName val="simulation_039"/>
+      <sheetName val="simulation_040"/>
+      <sheetName val="simulation_041"/>
+      <sheetName val="simulation_042"/>
+      <sheetName val="simulation_043"/>
+      <sheetName val="simulation_044"/>
+      <sheetName val="simulation_045"/>
+      <sheetName val="simulation_046"/>
+      <sheetName val="simulation_047"/>
+      <sheetName val="simulation_048"/>
+      <sheetName val="simulation_049"/>
+      <sheetName val="simulation_050"/>
+      <sheetName val="simulation_051"/>
+      <sheetName val="simulation_052"/>
+      <sheetName val="simulation_053"/>
+      <sheetName val="simulation_054"/>
+      <sheetName val="simulation_055"/>
+      <sheetName val="simulation_056"/>
+      <sheetName val="simulation_057"/>
+      <sheetName val="simulation_058"/>
+      <sheetName val="simulation_059"/>
+      <sheetName val="simulation_060"/>
+      <sheetName val="simulation_061"/>
+      <sheetName val="simulation_062"/>
+      <sheetName val="simulation_063"/>
+      <sheetName val="simulation_064"/>
+      <sheetName val="simulation_065"/>
+      <sheetName val="simulation_066"/>
+      <sheetName val="simulation_067"/>
+      <sheetName val="simulation_068"/>
+      <sheetName val="simulation_069"/>
+      <sheetName val="simulation_070"/>
+      <sheetName val="simulation_071"/>
+      <sheetName val="simulation_072"/>
+      <sheetName val="simulation_073"/>
+      <sheetName val="simulation_074"/>
+      <sheetName val="simulation_075"/>
+      <sheetName val="simulation_076"/>
+      <sheetName val="simulation_077"/>
+      <sheetName val="simulation_078"/>
+      <sheetName val="simulation_079"/>
+      <sheetName val="simulation_080"/>
+      <sheetName val="simulation_081"/>
+      <sheetName val="simulation_082"/>
+      <sheetName val="simulation_083"/>
+      <sheetName val="simulation_084"/>
+      <sheetName val="simulation_085"/>
+      <sheetName val="simulation_086"/>
+      <sheetName val="simulation_087"/>
+      <sheetName val="simulation_088"/>
+      <sheetName val="simulation_089"/>
+      <sheetName val="simulation_090"/>
+      <sheetName val="simulation_091"/>
+      <sheetName val="simulation_092"/>
+      <sheetName val="simulation_093"/>
+      <sheetName val="simulation_094"/>
+      <sheetName val="simulation_095"/>
+      <sheetName val="simulation_096"/>
+      <sheetName val="simulation_097"/>
+      <sheetName val="simulation_098"/>
+      <sheetName val="simulation_099"/>
+      <sheetName val="simulation_100"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet1 (2)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="61" refreshError="1"/>
+      <sheetData sheetId="62" refreshError="1"/>
+      <sheetData sheetId="63" refreshError="1"/>
+      <sheetData sheetId="64" refreshError="1"/>
+      <sheetData sheetId="65" refreshError="1"/>
+      <sheetData sheetId="66" refreshError="1"/>
+      <sheetData sheetId="67" refreshError="1"/>
+      <sheetData sheetId="68" refreshError="1"/>
+      <sheetData sheetId="69" refreshError="1"/>
+      <sheetData sheetId="70" refreshError="1"/>
+      <sheetData sheetId="71" refreshError="1"/>
+      <sheetData sheetId="72" refreshError="1"/>
+      <sheetData sheetId="73" refreshError="1"/>
+      <sheetData sheetId="74" refreshError="1"/>
+      <sheetData sheetId="75" refreshError="1"/>
+      <sheetData sheetId="76" refreshError="1"/>
+      <sheetData sheetId="77" refreshError="1"/>
+      <sheetData sheetId="78" refreshError="1"/>
+      <sheetData sheetId="79" refreshError="1"/>
+      <sheetData sheetId="80" refreshError="1"/>
+      <sheetData sheetId="81" refreshError="1"/>
+      <sheetData sheetId="82" refreshError="1"/>
+      <sheetData sheetId="83" refreshError="1"/>
+      <sheetData sheetId="84" refreshError="1"/>
+      <sheetData sheetId="85" refreshError="1"/>
+      <sheetData sheetId="86" refreshError="1"/>
+      <sheetData sheetId="87" refreshError="1"/>
+      <sheetData sheetId="88" refreshError="1"/>
+      <sheetData sheetId="89" refreshError="1"/>
+      <sheetData sheetId="90" refreshError="1"/>
+      <sheetData sheetId="91" refreshError="1"/>
+      <sheetData sheetId="92" refreshError="1"/>
+      <sheetData sheetId="93" refreshError="1"/>
+      <sheetData sheetId="94" refreshError="1"/>
+      <sheetData sheetId="95" refreshError="1"/>
+      <sheetData sheetId="96" refreshError="1"/>
+      <sheetData sheetId="97" refreshError="1"/>
+      <sheetData sheetId="98" refreshError="1"/>
+      <sheetData sheetId="99" refreshError="1"/>
+      <sheetData sheetId="100">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>simulation_001</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>simulation_002</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>simulation_003</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>simulation_004</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>simulation_005</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>simulation_006</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>simulation_007</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>simulation_008</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>simulation_009</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>simulation_010</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>99情報エントロピー</v>
+          </cell>
+          <cell r="B2">
+            <v>0.66534303052104782</v>
+          </cell>
+          <cell r="C2">
+            <v>1.088390782039572</v>
+          </cell>
+          <cell r="D2">
+            <v>1.086081416384064</v>
+          </cell>
+          <cell r="E2">
+            <v>1.0405781838336068</v>
+          </cell>
+          <cell r="F2">
+            <v>0.99897401488642668</v>
+          </cell>
+          <cell r="G2">
+            <v>0.96283914284524319</v>
+          </cell>
+          <cell r="H2">
+            <v>0.93084264544327466</v>
+          </cell>
+          <cell r="I2">
+            <v>0.91047977963786419</v>
+          </cell>
+          <cell r="J2">
+            <v>0.89184093998155611</v>
+          </cell>
+          <cell r="K2">
+            <v>0.87595498314688058</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>判定ライン</v>
+          </cell>
+          <cell r="B10">
+            <v>1</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="D10">
+            <v>1</v>
+          </cell>
+          <cell r="E10">
+            <v>1</v>
+          </cell>
+          <cell r="F10">
+            <v>1</v>
+          </cell>
+          <cell r="G10">
+            <v>1</v>
+          </cell>
+          <cell r="H10">
+            <v>1</v>
+          </cell>
+          <cell r="I10">
+            <v>1</v>
+          </cell>
+          <cell r="J10">
+            <v>1</v>
+          </cell>
+          <cell r="K10">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="101" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="simulation_0040"/>
+      <sheetName val="simulation_0041"/>
+      <sheetName val="simulation_0042"/>
+      <sheetName val="simulation_0043"/>
+      <sheetName val="simulation_0044"/>
+      <sheetName val="simulation_0045"/>
+      <sheetName val="simulation_0046"/>
+      <sheetName val="simulation_0047"/>
+      <sheetName val="simulation_0048"/>
+      <sheetName val="simulation_0049"/>
+      <sheetName val="simulation_0050"/>
+      <sheetName val="simulation_0051"/>
+      <sheetName val="simulation_0052"/>
+      <sheetName val="simulation_0053"/>
+      <sheetName val="simulation_0054"/>
+      <sheetName val="simulation_0055"/>
+      <sheetName val="simulation_0056"/>
+      <sheetName val="simulation_0057"/>
+      <sheetName val="simulation_0058"/>
+      <sheetName val="simulation_0059"/>
+      <sheetName val="simulation_0060"/>
+      <sheetName val="グラフ1"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet1 (2)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22">
+        <row r="1">
+          <cell r="G1" t="str">
+            <v>simulation_0045</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>simulation_0046</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>simulation_0047</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>simulation_0048</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>simulation_0049</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>simulation_0050</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>simulation_0051</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>simulation_0052</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>simulation_0053</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>simulation_0054</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>simulation_0055</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>99情報エントロピー</v>
+          </cell>
+          <cell r="G2">
+            <v>1.0198437820876123</v>
+          </cell>
+          <cell r="H2">
+            <v>1.0132982818603651</v>
+          </cell>
+          <cell r="I2">
+            <v>1.0114501074634761</v>
+          </cell>
+          <cell r="J2">
+            <v>1.00679982409691</v>
+          </cell>
+          <cell r="K2">
+            <v>1.003002882928153</v>
+          </cell>
+          <cell r="L2">
+            <v>0.99731846422632586</v>
+          </cell>
+          <cell r="M2">
+            <v>0.99501745606430436</v>
+          </cell>
+          <cell r="N2">
+            <v>0.99191706112365552</v>
+          </cell>
+          <cell r="O2">
+            <v>0.98713159842259979</v>
+          </cell>
+          <cell r="P2">
+            <v>0.98247018776425177</v>
+          </cell>
+          <cell r="Q2">
+            <v>0.97837601077159686</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>判定ライン</v>
+          </cell>
+          <cell r="G3">
+            <v>1</v>
+          </cell>
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+          <cell r="J3">
+            <v>1</v>
+          </cell>
+          <cell r="K3">
+            <v>1</v>
+          </cell>
+          <cell r="L3">
+            <v>1</v>
+          </cell>
+          <cell r="M3">
+            <v>1</v>
+          </cell>
+          <cell r="N3">
+            <v>1</v>
+          </cell>
+          <cell r="O3">
+            <v>1</v>
+          </cell>
+          <cell r="P3">
+            <v>1</v>
+          </cell>
+          <cell r="Q3">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="23" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5025,7 +7720,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5038,7 +7733,7 @@
         <v>0.01</v>
       </c>
       <c r="E1" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5046,7 +7741,7 @@
         <v>0.02</v>
       </c>
       <c r="E2" s="2">
-        <v>0.05</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5054,7 +7749,7 @@
         <v>0.03</v>
       </c>
       <c r="E3" s="2">
-        <v>5.5E-2</v>
+        <v>4.7000000000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5062,7 +7757,7 @@
         <v>0.04</v>
       </c>
       <c r="E4" s="2">
-        <v>0.06</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5070,7 +7765,7 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5078,7 +7773,7 @@
         <v>0.06</v>
       </c>
       <c r="E6" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5086,7 +7781,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>5.1000000000000004E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5094,7 +7789,7 @@
         <v>0.08</v>
       </c>
       <c r="E8" s="2">
-        <v>0.08</v>
+        <v>5.1999999999999998E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5102,7 +7797,7 @@
         <v>0.09</v>
       </c>
       <c r="E9" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>5.3E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5110,7 +7805,7 @@
         <v>0.1</v>
       </c>
       <c r="E10" s="2">
-        <v>0.09</v>
+        <v>5.4000000000000003E-3</v>
       </c>
     </row>
   </sheetData>
